--- a/backend/data/rankings/defensive_ranks.xlsx
+++ b/backend/data/rankings/defensive_ranks.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -852,7 +852,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -3800,7 +3800,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -3860,7 +3860,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -4808,7 +4808,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -4858,7 +4858,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -5064,7 +5064,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -5390,7 +5390,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -5450,7 +5450,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -5480,7 +5480,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -5510,7 +5510,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -5776,7 +5776,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -5906,7 +5906,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6022,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -6202,7 +6202,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -6458,7 +6458,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6508,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -6528,7 +6528,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -6538,7 +6538,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -6598,7 +6598,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -6618,7 +6618,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -6714,7 +6714,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -6744,7 +6744,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -6784,7 +6784,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -6854,7 +6854,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -6894,7 +6894,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -6914,7 +6914,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -6924,7 +6924,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -6934,7 +6934,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -6954,7 +6954,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -6984,7 +6984,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -7014,7 +7014,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -7050,7 +7050,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -7070,7 +7070,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -7160,7 +7160,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -7170,7 +7170,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -7190,7 +7190,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -7200,7 +7200,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -7230,7 +7230,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -7300,7 +7300,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -7340,7 +7340,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7506,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -7526,7 +7526,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7536,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -7546,7 +7546,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -7586,7 +7586,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7656,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7686,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -7772,7 +7772,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -7802,7 +7802,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -7832,7 +7832,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -7872,7 +7872,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -7902,7 +7902,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -7932,7 +7932,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -7942,7 +7942,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -7972,7 +7972,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -7992,7 +7992,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -8022,7 +8022,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -8042,7 +8042,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -8098,7 +8098,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -8108,7 +8108,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -8118,7 +8118,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -8168,7 +8168,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -8208,7 +8208,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -8238,7 +8238,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8298,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -8318,7 +8318,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -8328,7 +8328,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -8378,7 +8378,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -8434,7 +8434,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -8444,7 +8444,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -8464,7 +8464,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -8504,7 +8504,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -8534,7 +8534,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -8544,7 +8544,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -8564,7 +8564,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -8574,7 +8574,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -8604,7 +8604,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -8614,7 +8614,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -8634,7 +8634,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -8684,7 +8684,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -8694,7 +8694,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -8704,7 +8704,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -8714,7 +8714,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -8734,7 +8734,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -8744,7 +8744,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -8830,7 +8830,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -8840,7 +8840,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -8850,7 +8850,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -8880,7 +8880,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -8890,7 +8890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -8900,7 +8900,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -8910,7 +8910,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -8960,7 +8960,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -8980,7 +8980,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -9000,7 +9000,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -9010,7 +9010,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -9030,7 +9030,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -9040,7 +9040,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -9070,7 +9070,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -9080,7 +9080,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -9136,7 +9136,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -9146,7 +9146,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -9166,7 +9166,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -9176,7 +9176,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9186,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -9206,7 +9206,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -9226,7 +9226,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9246,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -9266,7 +9266,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -9286,7 +9286,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -9296,7 +9296,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -9316,7 +9316,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -9326,7 +9326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9366,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -9376,7 +9376,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -9386,7 +9386,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -9406,7 +9406,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -9472,7 +9472,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -9502,7 +9502,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -9522,7 +9522,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -9572,7 +9572,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -9602,7 +9602,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -9622,7 +9622,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -9632,7 +9632,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -9642,7 +9642,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -9652,7 +9652,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -9662,7 +9662,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -9672,7 +9672,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -9682,7 +9682,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -9692,7 +9692,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -9702,7 +9702,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -9712,7 +9712,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -9722,7 +9722,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -9762,7 +9762,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -9838,7 +9838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -9848,7 +9848,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -9888,7 +9888,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -9898,7 +9898,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -9908,7 +9908,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9918,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -9938,7 +9938,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -9948,7 +9948,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -9958,7 +9958,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -9968,7 +9968,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -9978,7 +9978,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -9988,7 +9988,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -9998,7 +9998,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -10018,7 +10018,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -10028,7 +10028,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -10048,7 +10048,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -10078,7 +10078,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -10088,7 +10088,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -10098,7 +10098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -10118,7 +10118,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -10174,7 +10174,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -10204,7 +10204,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -10214,7 +10214,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -10224,7 +10224,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -10244,7 +10244,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -10254,7 +10254,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -10294,7 +10294,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -10304,7 +10304,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -10314,7 +10314,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -10324,7 +10324,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -10334,7 +10334,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -10354,7 +10354,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -10364,7 +10364,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -10374,7 +10374,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -10384,7 +10384,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -10394,7 +10394,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -10424,7 +10424,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -10434,7 +10434,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -10454,7 +10454,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -10464,7 +10464,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -10510,7 +10510,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -10520,7 +10520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -10530,7 +10530,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -10550,7 +10550,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -10560,7 +10560,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -10570,7 +10570,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -10610,7 +10610,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -10620,7 +10620,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -10630,7 +10630,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -10640,7 +10640,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -10650,7 +10650,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -10680,7 +10680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -10690,7 +10690,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -10700,7 +10700,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -10710,7 +10710,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -10720,7 +10720,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -10730,7 +10730,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -10750,7 +10750,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -10760,7 +10760,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -10780,7 +10780,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -10790,7 +10790,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -10800,7 +10800,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -10820,7 +10820,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10866,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -10876,7 +10876,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -10886,7 +10886,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -10906,7 +10906,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10926,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -10946,7 +10946,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10986,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -10996,7 +10996,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -11006,7 +11006,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -11056,7 +11056,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -11066,7 +11066,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -11086,7 +11086,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11106,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -11116,7 +11116,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11136,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -11146,7 +11146,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -11156,7 +11156,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>

--- a/backend/data/rankings/defensive_ranks.xlsx
+++ b/backend/data/rankings/defensive_ranks.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -852,7 +852,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -3800,7 +3800,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -3860,7 +3860,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -4808,7 +4808,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -4858,7 +4858,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -4878,7 +4878,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -5064,7 +5064,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -5340,7 +5340,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -5390,7 +5390,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -5450,7 +5450,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -5480,7 +5480,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -5510,7 +5510,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -5776,7 +5776,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -5906,7 +5906,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6022,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -6202,7 +6202,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -6458,7 +6458,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -6478,7 +6478,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6508,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -6528,7 +6528,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -6538,7 +6538,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -6598,7 +6598,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -6618,7 +6618,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -6714,7 +6714,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -6744,7 +6744,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -6784,7 +6784,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -6854,7 +6854,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -6864,7 +6864,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -6894,7 +6894,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -6914,7 +6914,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -6924,7 +6924,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -6934,7 +6934,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -6954,7 +6954,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -6984,7 +6984,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -7014,7 +7014,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -7050,7 +7050,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -7070,7 +7070,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -7120,7 +7120,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -7130,7 +7130,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -7160,7 +7160,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -7170,7 +7170,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -7190,7 +7190,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -7200,7 +7200,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -7230,7 +7230,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -7290,7 +7290,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -7300,7 +7300,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -7340,7 +7340,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -7360,7 +7360,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -7396,7 +7396,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7506,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -7526,7 +7526,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7536,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -7546,7 +7546,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -7586,7 +7586,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7656,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7686,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -7696,7 +7696,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -7742,7 +7742,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -7772,7 +7772,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -7802,7 +7802,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -7832,7 +7832,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -7862,7 +7862,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -7872,7 +7872,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -7902,7 +7902,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -7932,7 +7932,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -7942,7 +7942,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -7972,7 +7972,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -7992,7 +7992,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -8022,7 +8022,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -8042,7 +8042,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -8098,7 +8098,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -8108,7 +8108,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -8118,7 +8118,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -8158,7 +8158,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -8168,7 +8168,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -8208,7 +8208,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -8238,7 +8238,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -8258,7 +8258,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8298,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -8308,7 +8308,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -8318,7 +8318,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -8328,7 +8328,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -8378,7 +8378,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -8398,7 +8398,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -8454,7 +8454,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -8464,7 +8464,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -8504,7 +8504,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -8514,7 +8514,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -8544,7 +8544,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -8574,7 +8574,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -8604,7 +8604,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -8614,7 +8614,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -8634,7 +8634,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -8684,7 +8684,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -8694,7 +8694,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -8704,7 +8704,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -8714,7 +8714,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -8734,7 +8734,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -8744,7 +8744,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -8790,7 +8790,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -8810,7 +8810,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -8830,7 +8830,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -8840,7 +8840,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -8850,7 +8850,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -8880,7 +8880,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -8890,7 +8890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -8900,7 +8900,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -8910,7 +8910,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -8930,7 +8930,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -8960,7 +8960,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -8980,7 +8980,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -8990,7 +8990,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -9010,7 +9010,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -9030,7 +9030,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -9040,7 +9040,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -9070,7 +9070,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -9080,7 +9080,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -9090,7 +9090,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9126,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -9136,7 +9136,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -9166,7 +9166,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -9176,7 +9176,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9186,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -9206,7 +9206,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -9226,7 +9226,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -9236,7 +9236,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9246,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -9286,7 +9286,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -9296,7 +9296,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -9306,7 +9306,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -9316,7 +9316,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -9326,7 +9326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9366,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -9376,7 +9376,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -9386,7 +9386,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -9406,7 +9406,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -9502,7 +9502,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -9512,7 +9512,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -9522,7 +9522,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -9542,7 +9542,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -9572,7 +9572,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -9602,7 +9602,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -9622,7 +9622,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -9632,7 +9632,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -9642,7 +9642,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -9652,7 +9652,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -9662,7 +9662,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -9672,7 +9672,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -9682,7 +9682,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -9692,7 +9692,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -9702,7 +9702,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -9712,7 +9712,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -9722,7 +9722,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -9762,7 +9762,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -9838,7 +9838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -9848,7 +9848,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -9888,7 +9888,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -9898,7 +9898,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -9908,7 +9908,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9918,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -9938,7 +9938,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -9948,7 +9948,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -9958,7 +9958,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -9968,7 +9968,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -9978,7 +9978,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -9988,7 +9988,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -9998,7 +9998,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -10008,7 +10008,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -10018,7 +10018,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -10028,7 +10028,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -10048,7 +10048,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -10078,7 +10078,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -10088,7 +10088,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -10098,7 +10098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -10118,7 +10118,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -10174,7 +10174,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -10184,7 +10184,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -10204,7 +10204,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -10214,7 +10214,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -10224,7 +10224,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -10254,7 +10254,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jacksonville-jaguars</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>jacksonville-jaguars</t>
         </is>
       </c>
     </row>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -10294,7 +10294,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -10304,7 +10304,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -10314,7 +10314,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -10324,7 +10324,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -10334,7 +10334,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -10364,7 +10364,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -10374,7 +10374,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -10384,7 +10384,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -10394,7 +10394,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -10414,7 +10414,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -10424,7 +10424,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -10434,7 +10434,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -10454,7 +10454,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -10464,7 +10464,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -10474,7 +10474,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -10510,7 +10510,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -10520,7 +10520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -10530,7 +10530,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -10550,7 +10550,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -10560,7 +10560,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -10570,7 +10570,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -10580,7 +10580,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -10610,7 +10610,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -10620,7 +10620,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -10630,7 +10630,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -10650,7 +10650,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>los-angeles-chargers</t>
         </is>
       </c>
     </row>
@@ -10680,7 +10680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>los-angeles-chargers</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -10700,7 +10700,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -10710,7 +10710,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -10720,7 +10720,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -10730,7 +10730,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -10760,7 +10760,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -10780,7 +10780,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -10790,7 +10790,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -10800,7 +10800,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -10810,7 +10810,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
@@ -10820,7 +10820,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -10856,7 +10856,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>new-england-patriots</t>
+          <t>baltimore-ravens</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10866,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>kansas-city-chiefs</t>
+          <t>green-bay-packers</t>
         </is>
       </c>
     </row>
@@ -10876,7 +10876,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>buffalo-bills</t>
+          <t>philadelphia-eagles</t>
         </is>
       </c>
     </row>
@@ -10886,7 +10886,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>san-francisco-49ers</t>
+          <t>new-england-patriots</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cincinnati-bengals</t>
+          <t>indianapolis-colts</t>
         </is>
       </c>
     </row>
@@ -10906,7 +10906,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>philadelphia-eagles</t>
+          <t>kansas-city-chiefs</t>
         </is>
       </c>
     </row>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>baltimore-ravens</t>
+          <t>denver-broncos</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10926,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>chicago-bears</t>
+          <t>san-francisco-49ers</t>
         </is>
       </c>
     </row>
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>miami-dolphins</t>
+          <t>arizona-cardinals</t>
         </is>
       </c>
     </row>
@@ -10946,7 +10946,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>indianapolis-colts</t>
+          <t>buffalo-bills</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>seattle-seahawks</t>
+          <t>cleveland-browns</t>
         </is>
       </c>
     </row>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>arizona-cardinals</t>
+          <t>atlanta-falcons</t>
         </is>
       </c>
     </row>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>washington-football-team</t>
+          <t>seattle-seahawks</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10986,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tampa-bay-buccaneers</t>
+          <t>washington-football-team</t>
         </is>
       </c>
     </row>
@@ -10996,7 +10996,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>denver-broncos</t>
+          <t>chicago-bears</t>
         </is>
       </c>
     </row>
@@ -11006,7 +11006,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>green-bay-packers</t>
+          <t>houston-texans</t>
         </is>
       </c>
     </row>
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>atlanta-falcons</t>
+          <t>cincinnati-bengals</t>
         </is>
       </c>
     </row>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>houston-texans</t>
+          <t>tampa-bay-buccaneers</t>
         </is>
       </c>
     </row>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>las-vegas-raiders</t>
+          <t>new-orleans-saints</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tennessee-titans</t>
+          <t>las-vegas-raiders</t>
         </is>
       </c>
     </row>
@@ -11056,7 +11056,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>new-orleans-saints</t>
+          <t>miami-dolphins</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>detroit-lions</t>
+          <t>dallas-cowboys</t>
         </is>
       </c>
     </row>
@@ -11096,7 +11096,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>los-angeles-rams</t>
+          <t>carolina-panthers</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11106,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>minnesota-vikings</t>
+          <t>new-york-giants</t>
         </is>
       </c>
     </row>
@@ -11116,7 +11116,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>new-york-jets</t>
+          <t>los-angeles-rams</t>
         </is>
       </c>
     </row>
@@ -11126,7 +11126,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cleveland-browns</t>
+          <t>pittsburgh-steelers</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11136,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pittsburgh-steelers</t>
+          <t>minnesota-vikings</t>
         </is>
       </c>
     </row>
@@ -11146,7 +11146,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>dallas-cowboys</t>
+          <t>tennessee-titans</t>
         </is>
       </c>
     </row>
@@ -11156,7 +11156,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>new-york-giants</t>
+          <t>new-york-jets</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11166,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>carolina-panthers</t>
+          <t>detroit-lions</t>
         </is>
       </c>
     </row>
